--- a/DataFeeds/InterimPricing.xlsx
+++ b/DataFeeds/InterimPricing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50E0537-0170-41AA-82A5-4E75C65E6F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56029068-788C-4237-B5DD-1A8C11DE37B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{7E882CCF-B493-474B-975D-D46D25912E29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7E882CCF-B493-474B-975D-D46D25912E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -80,7 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4CA1CF-AF8A-41FF-8D30-D7F48DB5EA76}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A104"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1235,6 +1235,22 @@
         <v>696.35022450945166</v>
       </c>
     </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B105">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B106">
+        <v>675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DataFeeds/InterimPricing.xlsx
+++ b/DataFeeds/InterimPricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56029068-788C-4237-B5DD-1A8C11DE37B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2785D7F-A9D1-46B7-9422-22E74A200770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7E882CCF-B493-474B-975D-D46D25912E29}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4CA1CF-AF8A-41FF-8D30-D7F48DB5EA76}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,6 +1251,30 @@
         <v>675</v>
       </c>
     </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B107">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B108">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B109">
+        <v>581</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DataFeeds/InterimPricing.xlsx
+++ b/DataFeeds/InterimPricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meesam/Sandbox/Nutrien/Canpotex/DataFeeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2785D7F-A9D1-46B7-9422-22E74A200770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25EF9B5-6335-5C4E-AB95-AE20CA874145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7E882CCF-B493-474B-975D-D46D25912E29}"/>
+    <workbookView xWindow="3500" yWindow="740" windowWidth="19420" windowHeight="10420" xr2:uid="{7E882CCF-B493-474B-975D-D46D25912E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -387,7 +387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4CA1CF-AF8A-41FF-8D30-D7F48DB5EA76}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41640</v>
       </c>
@@ -419,7 +419,7 @@
         <v>205.19573788110367</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41671</v>
       </c>
@@ -427,7 +427,7 @@
         <v>210.5294970822066</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41699</v>
       </c>
@@ -435,7 +435,7 @@
         <v>221.21187889403424</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41730</v>
       </c>
@@ -443,7 +443,7 @@
         <v>224.69000440015265</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41760</v>
       </c>
@@ -451,7 +451,7 @@
         <v>223.69438253591593</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41791</v>
       </c>
@@ -459,7 +459,7 @@
         <v>231.09657213271882</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>41821</v>
       </c>
@@ -467,7 +467,7 @@
         <v>246.13742235831421</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>41852</v>
       </c>
@@ -475,7 +475,7 @@
         <v>236.39112979900804</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>41883</v>
       </c>
@@ -483,7 +483,7 @@
         <v>235.56910186744352</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>41913</v>
       </c>
@@ -491,7 +491,7 @@
         <v>243.81545276977178</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>41944</v>
       </c>
@@ -499,7 +499,7 @@
         <v>238.90976151621652</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>41974</v>
       </c>
@@ -507,7 +507,7 @@
         <v>245.21185792082363</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42005</v>
       </c>
@@ -515,7 +515,7 @@
         <v>235.07356303871876</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42036</v>
       </c>
@@ -523,7 +523,7 @@
         <v>258.56317583362619</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42064</v>
       </c>
@@ -531,7 +531,7 @@
         <v>253.27399246673787</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42095</v>
       </c>
@@ -539,7 +539,7 @@
         <v>244.88224806907357</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42125</v>
       </c>
@@ -547,7 +547,7 @@
         <v>245.86650329470206</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42156</v>
       </c>
@@ -555,7 +555,7 @@
         <v>247.81757536740909</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42186</v>
       </c>
@@ -563,7 +563,7 @@
         <v>234.39101764342843</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42217</v>
       </c>
@@ -571,7 +571,7 @@
         <v>235.20425105903868</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42248</v>
       </c>
@@ -579,7 +579,7 @@
         <v>236.25390461004233</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42278</v>
       </c>
@@ -587,7 +587,7 @@
         <v>241.98369275486388</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42309</v>
       </c>
@@ -595,7 +595,7 @@
         <v>234.5102111927969</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42339</v>
       </c>
@@ -603,7 +603,7 @@
         <v>216.7728259005205</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42370</v>
       </c>
@@ -611,7 +611,7 @@
         <v>207.67665887817884</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42401</v>
       </c>
@@ -619,7 +619,7 @@
         <v>202.13535862988277</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42430</v>
       </c>
@@ -627,7 +627,7 @@
         <v>171.0279101286732</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42461</v>
       </c>
@@ -635,7 +635,7 @@
         <v>159.49562293009183</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42491</v>
       </c>
@@ -643,7 +643,7 @@
         <v>162.48951510745758</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42522</v>
       </c>
@@ -651,7 +651,7 @@
         <v>156.62719855176408</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42552</v>
       </c>
@@ -659,7 +659,7 @@
         <v>145.71906639627142</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42583</v>
       </c>
@@ -667,7 +667,7 @@
         <v>139.82625398100473</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42614</v>
       </c>
@@ -675,7 +675,7 @@
         <v>147.96685377025366</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42644</v>
       </c>
@@ -683,7 +683,7 @@
         <v>145.87376616345981</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42675</v>
       </c>
@@ -691,7 +691,7 @@
         <v>150.35736536473198</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42705</v>
       </c>
@@ -699,7 +699,7 @@
         <v>147.19689485584294</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42736</v>
       </c>
@@ -707,7 +707,7 @@
         <v>152.73507161759673</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42767</v>
       </c>
@@ -715,7 +715,7 @@
         <v>151.80044574628852</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42795</v>
       </c>
@@ -723,7 +723,7 @@
         <v>157.17485406539845</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42826</v>
       </c>
@@ -731,7 +731,7 @@
         <v>163.45326175650089</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42856</v>
       </c>
@@ -739,7 +739,7 @@
         <v>164.03446439141388</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42887</v>
       </c>
@@ -747,7 +747,7 @@
         <v>162.80859443457643</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42917</v>
       </c>
@@ -755,7 +755,7 @@
         <v>168.18922394272047</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42948</v>
       </c>
@@ -763,7 +763,7 @@
         <v>167.51191317149642</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42979</v>
       </c>
@@ -771,7 +771,7 @@
         <v>170.22699046338769</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43009</v>
       </c>
@@ -779,7 +779,7 @@
         <v>170.34175298119436</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43040</v>
       </c>
@@ -787,7 +787,7 @@
         <v>165.27691323727913</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43070</v>
       </c>
@@ -795,7 +795,7 @@
         <v>156.03620246926999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43101</v>
       </c>
@@ -803,7 +803,7 @@
         <v>161.87013426144691</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43132</v>
       </c>
@@ -811,7 +811,7 @@
         <v>173.03182817482596</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43160</v>
       </c>
@@ -819,7 +819,7 @@
         <v>180.65426972737714</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43191</v>
       </c>
@@ -827,7 +827,7 @@
         <v>181.6432085047305</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43221</v>
       </c>
@@ -835,7 +835,7 @@
         <v>192.64272626848035</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43252</v>
       </c>
@@ -843,7 +843,7 @@
         <v>192.69330767666875</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43282</v>
       </c>
@@ -851,7 +851,7 @@
         <v>194.90167384809115</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43313</v>
       </c>
@@ -859,7 +859,7 @@
         <v>211.08141255191416</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43344</v>
       </c>
@@ -867,7 +867,7 @@
         <v>211.70521917578782</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43374</v>
       </c>
@@ -875,7 +875,7 @@
         <v>212.71313267819943</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43405</v>
       </c>
@@ -883,7 +883,7 @@
         <v>213.81258966051192</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43435</v>
       </c>
@@ -891,7 +891,7 @@
         <v>214.41964760118694</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43466</v>
       </c>
@@ -899,7 +899,7 @@
         <v>220.48050191567324</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43497</v>
       </c>
@@ -907,7 +907,7 @@
         <v>230.29024903396214</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43525</v>
       </c>
@@ -915,7 +915,7 @@
         <v>234.13209352668542</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43556</v>
       </c>
@@ -923,7 +923,7 @@
         <v>231.86636866002695</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43586</v>
       </c>
@@ -931,7 +931,7 @@
         <v>236.62613934746011</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43617</v>
       </c>
@@ -939,7 +939,7 @@
         <v>235.56394247433201</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43647</v>
       </c>
@@ -947,7 +947,7 @@
         <v>237.62905695692868</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43678</v>
       </c>
@@ -955,7 +955,7 @@
         <v>234.21820936370247</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43709</v>
       </c>
@@ -963,7 +963,7 @@
         <v>220.59773833924143</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43739</v>
       </c>
@@ -971,7 +971,7 @@
         <v>212.12049685051738</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43770</v>
       </c>
@@ -979,7 +979,7 @@
         <v>181.20343115983508</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43800</v>
       </c>
@@ -987,7 +987,7 @@
         <v>179.22177743952162</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43831</v>
       </c>
@@ -995,7 +995,7 @@
         <v>179.25589557561673</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43862</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>175.73358825594016</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43891</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>172.74355412332375</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43922</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>167.86285771917088</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43952</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>157.66665143469024</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43983</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>153.98825523559179</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44013</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>153.29222577472601</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44044</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>150.44965543842289</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44075</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>147.63266370413908</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44105</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>150.16580552218431</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44136</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>150.22751020590434</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44166</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>152.09486119428351</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44197</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>155.81985825335923</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44228</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>164.32125829945028</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44256</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>165.16026295282279</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44287</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>167.97980920886681</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44317</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>180.55381057091921</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44348</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>189.60157773511756</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44378</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>219.48953019521923</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44409</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>260.85775455524646</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44440</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>259.08828261622762</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44470</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>348.39116062771313</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44501</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>398.02720551477358</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44531</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>364.61352431310866</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44562</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>485.97948417962834</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44593</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>528.81988314012449</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44621</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>542.51363533420624</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44652</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>580.57132170848706</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44682</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>642.30926846856789</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44713</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>700.9563382636403</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44743</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>696.35022450945166</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44774</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44805</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44835</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44866</v>
       </c>
@@ -1267,12 +1267,72 @@
         <v>613</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44896</v>
       </c>
       <c r="B109">
         <v>581</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45261</v>
       </c>
     </row>
   </sheetData>

--- a/DataFeeds/InterimPricing.xlsx
+++ b/DataFeeds/InterimPricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meesam/Sandbox/Nutrien/Canpotex/DataFeeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25EF9B5-6335-5C4E-AB95-AE20CA874145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76621193-DD4A-4347-9FAE-61E1C294752B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="740" windowWidth="19420" windowHeight="10420" xr2:uid="{7E882CCF-B493-474B-975D-D46D25912E29}"/>
   </bookViews>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4CA1CF-AF8A-41FF-8D30-D7F48DB5EA76}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1279,60 +1279,96 @@
       <c r="A110" s="1">
         <v>44927</v>
       </c>
+      <c r="B110">
+        <v>516.65019274929227</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44958</v>
       </c>
+      <c r="B111">
+        <v>459.25203286655994</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44986</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>397.84397137970029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>45017</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>398.16037878233846</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>45047</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>399.68264381252743</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>45078</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>399.25312666369229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>45108</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>397.33526810467691</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>45139</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>397.00785842393844</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>45170</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>396.70599348008614</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>45200</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>397.67744701382151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>45231</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>397.12623831080612</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>45261</v>
+      </c>
+      <c r="B121">
+        <v>396.19664348308919</v>
       </c>
     </row>
   </sheetData>
